--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2189.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2189.xlsx
@@ -354,7 +354,7 @@
         <v>1.94245358290295</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.951444075126178</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2189.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2189.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.074190340903294</v>
+        <v>1.065099835395813</v>
       </c>
       <c r="B1">
-        <v>1.94245358290295</v>
+        <v>1.671149730682373</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.886199474334717</v>
       </c>
       <c r="D1">
-        <v>1.951444075126178</v>
+        <v>2.715194940567017</v>
       </c>
       <c r="E1">
-        <v>0.966152384101486</v>
+        <v>1.473120331764221</v>
       </c>
     </row>
   </sheetData>
